--- a/extensions/icdm2016/doc-Experiments/LocalHiddenVars.xlsx
+++ b/extensions/icdm2016/doc-Experiments/LocalHiddenVars.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="780" windowWidth="25600" windowHeight="18380" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="29540" yWindow="700" windowWidth="25600" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VAR01" sheetId="1" r:id="rId1"/>
@@ -1141,8 +1141,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082124152"/>
-        <c:axId val="2082126296"/>
+        <c:axId val="2128754264"/>
+        <c:axId val="2128752408"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1383,11 +1383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141533288"/>
-        <c:axId val="2141529960"/>
+        <c:axId val="2128740648"/>
+        <c:axId val="2128749736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082124152"/>
+        <c:axId val="2128754264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082126296"/>
+        <c:crossAx val="2128752408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1404,7 +1404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082126296"/>
+        <c:axId val="2128752408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,12 +1415,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082124152"/>
+        <c:crossAx val="2128754264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141529960"/>
+        <c:axId val="2128749736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,12 +1430,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141533288"/>
+        <c:crossAx val="2128740648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2141533288"/>
+        <c:axId val="2128740648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1444,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141529960"/>
+        <c:crossAx val="2128749736"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1453,7 +1454,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -2389,8 +2389,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143606696"/>
-        <c:axId val="2143609752"/>
+        <c:axId val="-2146668424"/>
+        <c:axId val="-2146643288"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2631,11 +2631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143467272"/>
-        <c:axId val="2143612792"/>
+        <c:axId val="-2123159400"/>
+        <c:axId val="-2146678120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143606696"/>
+        <c:axId val="-2146668424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +2644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143609752"/>
+        <c:crossAx val="-2146643288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2652,7 +2652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143609752"/>
+        <c:axId val="-2146643288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,12 +2663,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143606696"/>
+        <c:crossAx val="-2146668424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143612792"/>
+        <c:axId val="-2146678120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,12 +2678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143467272"/>
+        <c:crossAx val="-2123159400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2143467272"/>
+        <c:axId val="-2123159400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143612792"/>
+        <c:crossAx val="-2146678120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2702,7 +2702,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -3638,8 +3637,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2144200568"/>
-        <c:axId val="2144203624"/>
+        <c:axId val="-2146592344"/>
+        <c:axId val="-2146479448"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3880,11 +3879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2144209656"/>
-        <c:axId val="2144206664"/>
+        <c:axId val="-2146519832"/>
+        <c:axId val="-2146500584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144200568"/>
+        <c:axId val="-2146592344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,7 +3892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144203624"/>
+        <c:crossAx val="-2146479448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3901,7 +3900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144203624"/>
+        <c:axId val="-2146479448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3912,12 +3911,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144200568"/>
+        <c:crossAx val="-2146592344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2144206664"/>
+        <c:axId val="-2146500584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,12 +3926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144209656"/>
+        <c:crossAx val="-2146519832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2144209656"/>
+        <c:axId val="-2146519832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3941,7 +3940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144206664"/>
+        <c:crossAx val="-2146500584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4887,8 +4886,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2096829112"/>
-        <c:axId val="2096832168"/>
+        <c:axId val="2128666712"/>
+        <c:axId val="2128652696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5129,11 +5128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2096838200"/>
-        <c:axId val="2096835208"/>
+        <c:axId val="2128658728"/>
+        <c:axId val="2128655736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096829112"/>
+        <c:axId val="2128666712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5142,7 +5141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096832168"/>
+        <c:crossAx val="2128652696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5150,7 +5149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096832168"/>
+        <c:axId val="2128652696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,12 +5160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096829112"/>
+        <c:crossAx val="2128666712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096835208"/>
+        <c:axId val="2128655736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5176,12 +5175,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096838200"/>
+        <c:crossAx val="2128658728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2096838200"/>
+        <c:axId val="2128658728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,7 +5189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096835208"/>
+        <c:crossAx val="2128655736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6136,8 +6135,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145813128"/>
-        <c:axId val="2143297928"/>
+        <c:axId val="-2147370056"/>
+        <c:axId val="-2132972488"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6378,11 +6377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145658376"/>
-        <c:axId val="2145811608"/>
+        <c:axId val="-2133034472"/>
+        <c:axId val="-2133018328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145813128"/>
+        <c:axId val="-2147370056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6391,7 +6390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143297928"/>
+        <c:crossAx val="-2132972488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6399,7 +6398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143297928"/>
+        <c:axId val="-2132972488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,12 +6409,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145813128"/>
+        <c:crossAx val="-2147370056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145811608"/>
+        <c:axId val="-2133018328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6425,12 +6424,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145658376"/>
+        <c:crossAx val="-2133034472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2145658376"/>
+        <c:axId val="-2133034472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6439,7 +6438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145811608"/>
+        <c:crossAx val="-2133018328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6449,7 +6448,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -7385,8 +7383,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147266760"/>
-        <c:axId val="-2147263704"/>
+        <c:axId val="-2113829352"/>
+        <c:axId val="-2112903752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7627,11 +7625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147257672"/>
-        <c:axId val="-2147260664"/>
+        <c:axId val="-2113567768"/>
+        <c:axId val="-2113828936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147266760"/>
+        <c:axId val="-2113829352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7640,7 +7638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147263704"/>
+        <c:crossAx val="-2112903752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7648,7 +7646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147263704"/>
+        <c:axId val="-2112903752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7659,12 +7657,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147266760"/>
+        <c:crossAx val="-2113829352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147260664"/>
+        <c:axId val="-2113828936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7674,12 +7672,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147257672"/>
+        <c:crossAx val="-2113567768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2147257672"/>
+        <c:axId val="-2113567768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7688,7 +7686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147260664"/>
+        <c:crossAx val="-2113828936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7698,7 +7696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -9052,11 +9049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121570824"/>
-        <c:axId val="-2121567848"/>
+        <c:axId val="-2112942824"/>
+        <c:axId val="-2112939528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121570824"/>
+        <c:axId val="-2112942824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9065,7 +9062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121567848"/>
+        <c:crossAx val="-2112939528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9073,7 +9070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121567848"/>
+        <c:axId val="-2112939528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9084,7 +9081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121570824"/>
+        <c:crossAx val="-2112942824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9999,11 +9996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119886648"/>
-        <c:axId val="-2119883672"/>
+        <c:axId val="-2112991112"/>
+        <c:axId val="-2112988152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119886648"/>
+        <c:axId val="-2112991112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10012,7 +10009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119883672"/>
+        <c:crossAx val="-2112988152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10020,7 +10017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119883672"/>
+        <c:axId val="-2112988152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10031,14 +10028,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119886648"/>
+        <c:crossAx val="-2112991112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10052,7 +10048,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10294,7 +10290,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9209497" cy="5623145"/>
+    <xdr:ext cx="9201930" cy="5603596"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12888,7 +12884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -13998,8 +13994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E39" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/extensions/icdm2016/doc-Experiments/LocalHiddenVars.xlsx
+++ b/extensions/icdm2016/doc-Experiments/LocalHiddenVars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29540" yWindow="700" windowWidth="25600" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="15740" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="VAR01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>VAR01realMean_c0</t>
   </si>
@@ -130,6 +130,9 @@
   <si>
     <t>UR</t>
   </si>
+  <si>
+    <t>Square Errors</t>
+  </si>
 </sst>
 </file>
 
@@ -177,8 +180,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -201,7 +218,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -211,6 +228,13 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -220,6 +244,13 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1141,8 +1172,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128754264"/>
-        <c:axId val="2128752408"/>
+        <c:axId val="-2104013192"/>
+        <c:axId val="-2104010136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1383,11 +1414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128740648"/>
-        <c:axId val="2128749736"/>
+        <c:axId val="-2104004104"/>
+        <c:axId val="-2104007096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128754264"/>
+        <c:axId val="-2104013192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128752408"/>
+        <c:crossAx val="-2104010136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1404,7 +1435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128752408"/>
+        <c:axId val="-2104010136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,12 +1446,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128754264"/>
+        <c:crossAx val="-2104013192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128749736"/>
+        <c:axId val="-2104007096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,12 +1461,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128740648"/>
+        <c:crossAx val="-2104004104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128740648"/>
+        <c:axId val="-2104004104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128749736"/>
+        <c:crossAx val="-2104007096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1454,6 +1485,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -2389,8 +2421,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146668424"/>
-        <c:axId val="-2146643288"/>
+        <c:axId val="-2086840696"/>
+        <c:axId val="-2086837640"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2631,11 +2663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123159400"/>
-        <c:axId val="-2146678120"/>
+        <c:axId val="-2087103048"/>
+        <c:axId val="-2125401640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146668424"/>
+        <c:axId val="-2086840696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +2676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146643288"/>
+        <c:crossAx val="-2086837640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2652,7 +2684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146643288"/>
+        <c:axId val="-2086837640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,12 +2695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146668424"/>
+        <c:crossAx val="-2086840696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146678120"/>
+        <c:axId val="-2125401640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,12 +2710,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123159400"/>
+        <c:crossAx val="-2087103048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2123159400"/>
+        <c:axId val="-2087103048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146678120"/>
+        <c:crossAx val="-2125401640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2702,6 +2734,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -3637,8 +3670,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146592344"/>
-        <c:axId val="-2146479448"/>
+        <c:axId val="-2115142760"/>
+        <c:axId val="-2115175752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3879,11 +3912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146519832"/>
-        <c:axId val="-2146500584"/>
+        <c:axId val="-2115898040"/>
+        <c:axId val="-2115172712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146592344"/>
+        <c:axId val="-2115142760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3892,7 +3925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146479448"/>
+        <c:crossAx val="-2115175752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3900,7 +3933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146479448"/>
+        <c:axId val="-2115175752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,12 +3944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146592344"/>
+        <c:crossAx val="-2115142760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146500584"/>
+        <c:axId val="-2115172712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,12 +3959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146519832"/>
+        <c:crossAx val="-2115898040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2146519832"/>
+        <c:axId val="-2115898040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146500584"/>
+        <c:crossAx val="-2115172712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4886,8 +4919,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128666712"/>
-        <c:axId val="2128652696"/>
+        <c:axId val="-2126420664"/>
+        <c:axId val="-2126422584"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5128,11 +5161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128658728"/>
-        <c:axId val="2128655736"/>
+        <c:axId val="-2126428952"/>
+        <c:axId val="-2126425848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128666712"/>
+        <c:axId val="-2126420664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,7 +5174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128652696"/>
+        <c:crossAx val="-2126422584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5149,7 +5182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128652696"/>
+        <c:axId val="-2126422584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5160,12 +5193,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128666712"/>
+        <c:crossAx val="-2126420664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128655736"/>
+        <c:axId val="-2126425848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5175,12 +5208,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128658728"/>
+        <c:crossAx val="-2126428952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128658728"/>
+        <c:axId val="-2126428952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,7 +5222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128655736"/>
+        <c:crossAx val="-2126425848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5199,7 +5232,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -6135,8 +6167,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147370056"/>
-        <c:axId val="-2132972488"/>
+        <c:axId val="-2104130056"/>
+        <c:axId val="-2104127000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6377,11 +6409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133034472"/>
-        <c:axId val="-2133018328"/>
+        <c:axId val="-2104120968"/>
+        <c:axId val="-2104123960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147370056"/>
+        <c:axId val="-2104130056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6390,7 +6422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132972488"/>
+        <c:crossAx val="-2104127000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6398,7 +6430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132972488"/>
+        <c:axId val="-2104127000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6409,12 +6441,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147370056"/>
+        <c:crossAx val="-2104130056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133018328"/>
+        <c:axId val="-2104123960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6424,12 +6456,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133034472"/>
+        <c:crossAx val="-2104120968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2133034472"/>
+        <c:axId val="-2104120968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6438,7 +6470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133018328"/>
+        <c:crossAx val="-2104123960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7383,8 +7415,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113829352"/>
-        <c:axId val="-2112903752"/>
+        <c:axId val="-2104285160"/>
+        <c:axId val="-2104282104"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7625,11 +7657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113567768"/>
-        <c:axId val="-2113828936"/>
+        <c:axId val="-2104276072"/>
+        <c:axId val="-2104279064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113829352"/>
+        <c:axId val="-2104285160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7638,7 +7670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112903752"/>
+        <c:crossAx val="-2104282104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7646,7 +7678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112903752"/>
+        <c:axId val="-2104282104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7657,12 +7689,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113829352"/>
+        <c:crossAx val="-2104285160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2113828936"/>
+        <c:axId val="-2104279064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7672,12 +7704,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113567768"/>
+        <c:crossAx val="-2104276072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2113567768"/>
+        <c:axId val="-2104276072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7686,7 +7718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113828936"/>
+        <c:crossAx val="-2104279064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7696,6 +7728,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -9049,11 +9082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112942824"/>
-        <c:axId val="-2112939528"/>
+        <c:axId val="-2104227320"/>
+        <c:axId val="-2104224184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112942824"/>
+        <c:axId val="-2104227320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9062,7 +9095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112939528"/>
+        <c:crossAx val="-2104224184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9070,7 +9103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112939528"/>
+        <c:axId val="-2104224184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9081,7 +9114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112942824"/>
+        <c:crossAx val="-2104227320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9576,193 +9609,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>12.18</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>12.18</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10.45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>10.45</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>13.62</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>13.62</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>17.57</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>17.57</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.57</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>21.74</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>21.74</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>24.98</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>24.98</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>24.72</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>24.72</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>27.47</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>27.47</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.47</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>30.64</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>30.64</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>24.46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>24.46</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.46</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>27.79</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>27.79</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>29.43</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>29.43</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.43</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>27.49</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>27.49</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>27.09</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>27.09</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>27.09</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>32.04</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>32.04</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>35.29</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>35.29</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>35.57</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>35.57</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>33.21</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>33.21</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>35.28</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>35.28</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>35.32</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>35.32</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>38.44</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>38.44</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>36.6</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>36.6</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>37.11</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>37.11</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>35.74</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>35.74</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>38.77</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>38.77</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>36.25</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>36.25</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>33.35</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>33.35</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9996,11 +10029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112991112"/>
-        <c:axId val="-2112988152"/>
+        <c:axId val="-2115913720"/>
+        <c:axId val="-2115266536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112991112"/>
+        <c:axId val="-2115913720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10009,7 +10042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112988152"/>
+        <c:crossAx val="-2115266536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10017,7 +10050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112988152"/>
+        <c:axId val="-2115266536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10028,7 +10061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112991112"/>
+        <c:crossAx val="-2115913720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10048,7 +10081,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10070,16 +10103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10105,16 +10138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10142,16 +10175,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10290,7 +10323,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9201930" cy="5603596"/>
+    <xdr:ext cx="9213725" cy="5615392"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10662,15 +10695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H65" sqref="H1:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10686,8 +10719,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>58371.936477838302</v>
       </c>
@@ -10703,8 +10739,12 @@
       <c r="E2">
         <v>12.3726630301065</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2">
+        <f>(E3-E2)^2</f>
+        <v>1.5452702164164741E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>58891.846238850703</v>
       </c>
@@ -10720,8 +10760,12 @@
       <c r="E3">
         <v>12.2483541319368</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <f t="shared" ref="H3:H64" si="0">(E4-E3)^2</f>
+        <v>1.2964246815976865E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>59324.657640232101</v>
       </c>
@@ -10737,8 +10781,12 @@
       <c r="E4">
         <v>12.2123482340644</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.3074507454197888E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>60083.1934750215</v>
       </c>
@@ -10754,8 +10802,12 @@
       <c r="E5">
         <v>12.2485069224452</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.836696306300006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>61043.1368912381</v>
       </c>
@@ -10771,8 +10823,12 @@
       <c r="E6">
         <v>12.384031691631501</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.9412493217914311E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>60696.358897644997</v>
       </c>
@@ -10788,8 +10844,12 @@
       <c r="E7">
         <v>12.582557491511301</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8.1923173917408096E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>61615.5286326571</v>
       </c>
@@ -10805,8 +10865,12 @@
       <c r="E8">
         <v>12.8687797371831</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.14488895928721904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>61644.715164522902</v>
       </c>
@@ -10822,8 +10886,12 @@
       <c r="E9">
         <v>13.249422560952601</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.10552285518892932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>61587.184057772203</v>
       </c>
@@ -10839,8 +10907,12 @@
       <c r="E10">
         <v>13.574265377079</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.11201212197006614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>62330.405801017798</v>
       </c>
@@ -10856,8 +10928,12 @@
       <c r="E11">
         <v>13.908947497859399</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.36789359388746889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>62354.1118643558</v>
       </c>
@@ -10873,8 +10949,12 @@
       <c r="E12">
         <v>14.515489824401801</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.31359433283008314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>61844.9621766899</v>
       </c>
@@ -10890,8 +10970,12 @@
       <c r="E13">
         <v>15.0754847644058</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.22932677938935978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>62726.711485092601</v>
       </c>
@@ -10907,8 +10991,12 @@
       <c r="E14">
         <v>15.5543655213687</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.16343773634563846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>63331.112288937598</v>
       </c>
@@ -10924,8 +11012,12 @@
       <c r="E15">
         <v>15.9586398543972</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.13351755646557983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>63194.529640989102</v>
       </c>
@@ -10941,8 +11033,12 @@
       <c r="E16">
         <v>16.324040396905801</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>7.7820219429105719E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>63208.963451882497</v>
       </c>
@@ -10958,8 +11054,12 @@
       <c r="E17">
         <v>16.6030031532535</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>9.9385740291429728E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>63357.282509738303</v>
       </c>
@@ -10975,8 +11075,12 @@
       <c r="E18">
         <v>16.918258193326501</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>7.164126447624318E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>62413.886556787802</v>
       </c>
@@ -10992,8 +11096,12 @@
       <c r="E19">
         <v>17.1859170517195</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>6.8867731682348859E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>62241.029790364097</v>
       </c>
@@ -11009,8 +11117,12 @@
       <c r="E20">
         <v>17.4483436732394</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.12542115799570927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>63316.228203238898</v>
       </c>
@@ -11026,8 +11138,12 @@
       <c r="E21">
         <v>17.802492170335899</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>4.474935628929839E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>63176.154059863402</v>
       </c>
@@ -11043,8 +11159,12 @@
       <c r="E22">
         <v>17.869387130003499</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>8.6802900370984371E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>62472.376378252498</v>
       </c>
@@ -11060,8 +11180,12 @@
       <c r="E23">
         <v>18.164010449465799</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2.3309403718872121E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>64044.182071501396</v>
       </c>
@@ -11077,8 +11201,12 @@
       <c r="E24">
         <v>18.212290262761702</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2.1912420413477681E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>63603.306992302103</v>
       </c>
@@ -11094,8 +11222,12 @@
       <c r="E25">
         <v>18.3603187073711</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2.570984883174678E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>63535.733094211202</v>
       </c>
@@ -11111,8 +11243,12 @@
       <c r="E26">
         <v>18.520661617509798</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.13973715889155705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>63435.536964365201</v>
       </c>
@@ -11128,8 +11264,12 @@
       <c r="E27">
         <v>18.894475954971</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.11032112343542286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>63385.617711921797</v>
       </c>
@@ -11145,8 +11285,12 @@
       <c r="E28">
         <v>19.226622192997901</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.19248872591058769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>61959.257736635402</v>
       </c>
@@ -11162,8 +11306,12 @@
       <c r="E29">
         <v>19.6653575641621</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.15742448625145816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>62607.406561076197</v>
       </c>
@@ -11179,8 +11327,12 @@
       <c r="E30">
         <v>20.062125111034899</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.1896281024611999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>61643.708296919001</v>
       </c>
@@ -11196,8 +11348,12 @@
       <c r="E31">
         <v>20.497588200700601</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.13804565385963213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>61728.4304678072</v>
       </c>
@@ -11213,8 +11369,12 @@
       <c r="E32">
         <v>20.869133156068902</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.20577801606983309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>61140.552701956898</v>
       </c>
@@ -11230,8 +11390,12 @@
       <c r="E33">
         <v>21.322760774352702</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>4.6232690646554803E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>59500.669249735802</v>
       </c>
@@ -11247,8 +11411,12 @@
       <c r="E34">
         <v>21.5377786588334</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.6840601589797735E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>60390.673909686797</v>
       </c>
@@ -11264,8 +11432,12 @@
       <c r="E35">
         <v>21.667550002317999</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.23640402906910427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>59499.4282565268</v>
       </c>
@@ -11281,8 +11453,12 @@
       <c r="E36">
         <v>22.153763976890001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>6.0250737707840389E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>59589.501962052898</v>
       </c>
@@ -11298,8 +11474,12 @@
       <c r="E37">
         <v>22.3992242337705</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2.6002702774815721E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>60526.588701021697</v>
       </c>
@@ -11315,8 +11495,12 @@
       <c r="E38">
         <v>22.5604777694676</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>3.8976735076733482E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>59408.540032262899</v>
       </c>
@@ -11332,8 +11516,12 @@
       <c r="E39">
         <v>22.622909119826801</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>7.9821652566270513E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>59392.700729926997</v>
       </c>
@@ -11349,8 +11537,12 @@
       <c r="E40">
         <v>22.594656393840399</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2.2562165379814675E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>58135.240716797998</v>
       </c>
@@ -11366,8 +11558,12 @@
       <c r="E41">
         <v>22.444449318841201</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>4.4153827073190434E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>57514.387739506099</v>
       </c>
@@ -11383,8 +11579,12 @@
       <c r="E42">
         <v>22.423436506779701</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>3.3588279063452185E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>56888.454711814898</v>
       </c>
@@ -11400,8 +11600,12 @@
       <c r="E43">
         <v>22.365481110945101</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>2.3916315870117326E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>56865.440302161202</v>
       </c>
@@ -11417,8 +11621,12 @@
       <c r="E44">
         <v>22.520130119574699</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.11498299473253601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>56194.312602847698</v>
       </c>
@@ -11434,8 +11642,12 @@
       <c r="E45">
         <v>22.859221544905001</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0.65313844063199145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>56162.415721885598</v>
       </c>
@@ -11451,8 +11663,12 @@
       <c r="E46">
         <v>23.667391354185199</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.19046794660538846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>55348.916162582304</v>
       </c>
@@ -11468,8 +11684,12 @@
       <c r="E47">
         <v>24.103817690014498</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1.1782466455829232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>54509.857838884003</v>
       </c>
@@ -11485,8 +11705,12 @@
       <c r="E48">
         <v>25.189288392328901</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.4009041652502669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>53541.578138571502</v>
       </c>
@@ -11502,8 +11726,12 @@
       <c r="E49">
         <v>25.822458326272599</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0.23096077258947301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>53548.175153238997</v>
       </c>
@@ -11519,8 +11747,12 @@
       <c r="E50">
         <v>26.303042109383799</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.12371144316412157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>52755.849211498396</v>
       </c>
@@ -11536,8 +11768,12 @@
       <c r="E51">
         <v>26.654768484801</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.12581571838022362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>53514.566548062103</v>
       </c>
@@ -11553,8 +11789,12 @@
       <c r="E52">
         <v>27.009473599481101</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>7.4683897802962597E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52888.176744564997</v>
       </c>
@@ -11570,8 +11810,12 @@
       <c r="E53">
         <v>26.923053753494798</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1.2221698115331906E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>52549.205349687203</v>
       </c>
@@ -11587,8 +11831,12 @@
       <c r="E54">
         <v>26.888094208138298</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>1.5802743129140187E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>52371.863397119399</v>
       </c>
@@ -11604,8 +11852,12 @@
       <c r="E55">
         <v>26.848341543914199</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>5.5589809082391803E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>51624.278014418996</v>
       </c>
@@ -11621,8 +11873,12 @@
       <c r="E56">
         <v>26.824764052723999</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>8.6601559338935277E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>50212.076664147797</v>
       </c>
@@ -11638,8 +11894,12 @@
       <c r="E57">
         <v>26.854192195604401</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>4.1221852432571458E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>50368.307051308497</v>
       </c>
@@ -11655,8 +11915,12 @@
       <c r="E58">
         <v>26.874495360981399</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1.4140703713436642E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>49577.292720929901</v>
       </c>
@@ -11672,8 +11936,12 @@
       <c r="E59">
         <v>26.993410051888102</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>2.2538811986766868E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>50413.089961625003</v>
       </c>
@@ -11689,8 +11957,12 @@
       <c r="E60">
         <v>27.143539369433899</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>2.5843557440871384E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>50757.847849682097</v>
       </c>
@@ -11706,8 +11978,12 @@
       <c r="E61">
         <v>27.304298684687701</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>4.2112842139902233E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>50917.386725906203</v>
       </c>
@@ -11723,8 +11999,12 @@
       <c r="E62">
         <v>27.509512821968499</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>5.4176384748724431E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>49957.332957825798</v>
       </c>
@@ -11740,8 +12020,12 @@
       <c r="E63">
         <v>27.7422710328843</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>4.9112403420614514E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>50586.157798165099</v>
       </c>
@@ -11756,6 +12040,12 @@
       </c>
       <c r="E64">
         <v>27.963884217105399</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65">
+        <f>SUM(H2:H63)/64</f>
+        <v>0.11132354476991224</v>
       </c>
     </row>
   </sheetData>
@@ -11772,15 +12062,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -11796,8 +12086,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-4580.1088362171104</v>
       </c>
@@ -11813,8 +12106,12 @@
       <c r="E2">
         <v>12.372725563113301</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2">
+        <f>(E3-E2)^2</f>
+        <v>7.3739626338585797E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>-4605.0817813560598</v>
       </c>
@@ -11830,8 +12127,12 @@
       <c r="E3">
         <v>12.2868537829183</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <f t="shared" ref="H3:H64" si="0">(E4-E3)^2</f>
+        <v>0.1013545940814095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>-5031.7792365183705</v>
       </c>
@@ -11847,8 +12148,12 @@
       <c r="E4">
         <v>12.605216145771401</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.16283539866703503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>-4176.7619468276998</v>
       </c>
@@ -11864,8 +12169,12 @@
       <c r="E5">
         <v>12.201687461949501</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.7680029933233293E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>-3892.80620577734</v>
       </c>
@@ -11881,8 +12190,12 @@
       <c r="E6">
         <v>12.0687211882812</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.2017052639429962E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>-4535.3899711611102</v>
       </c>
@@ -11898,8 +12211,12 @@
       <c r="E7">
         <v>12.1783435064442</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>9.2244477750957508E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>-4559.1952445496599</v>
       </c>
@@ -11915,8 +12232,12 @@
       <c r="E8">
         <v>12.1479717304423</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>9.1703740018220098E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>-4854.4667033448704</v>
       </c>
@@ -11932,8 +12253,12 @@
       <c r="E9">
         <v>12.450797984288</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.8214482252428262E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>-4603.2268939774804</v>
       </c>
@@ -11949,8 +12274,12 @@
       <c r="E10">
         <v>12.428840187893</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.8697189142760902E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>-4477.4363236199297</v>
       </c>
@@ -11966,8 +12295,12 @@
       <c r="E11">
         <v>12.3855999414289</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.26035416929079158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>-5065.4869704029898</v>
       </c>
@@ -11983,8 +12316,12 @@
       <c r="E12">
         <v>12.895849066161899</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4.3903496548343732E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>-4439.5746965830604</v>
       </c>
@@ -12000,8 +12337,12 @@
       <c r="E13">
         <v>12.6863174538731</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.0545541371167004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>-5389.2481106510504</v>
       </c>
@@ -12017,8 +12358,12 @@
       <c r="E14">
         <v>13.7132323174897</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.78587737161597782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>-4118.8550065874097</v>
       </c>
@@ -12034,8 +12379,12 @@
       <c r="E15">
         <v>12.8267350689796</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.43333362865966985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>-4147.8703089300698</v>
       </c>
@@ -12051,8 +12400,12 @@
       <c r="E16">
         <v>12.1684542560588</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.16808023831867233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>-4996.4424128015198</v>
       </c>
@@ -12068,8 +12421,12 @@
       <c r="E17">
         <v>12.578430155739101</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.44938751479088013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>-3927.4703640135499</v>
       </c>
@@ -12085,8 +12442,12 @@
       <c r="E18">
         <v>11.9080664374556</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.31167183054402675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>-3961.0295615159098</v>
       </c>
@@ -12102,8 +12463,12 @@
       <c r="E19">
         <v>11.349790671777001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.14688260326995492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>-3866.4200494299298</v>
       </c>
@@ -12119,8 +12484,12 @@
       <c r="E20">
         <v>10.9665380093336</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.2963845613765047E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>-4349.6273667634496</v>
       </c>
@@ -12136,8 +12505,12 @@
       <c r="E21">
         <v>10.852679124683499</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.6856547637713329E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>-4346.6613279913399</v>
       </c>
@@ -12153,8 +12526,12 @@
       <c r="E22">
         <v>10.839695847886899</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.2064536027030445E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>-4180.9426834375399</v>
       </c>
@@ -12170,8 +12547,12 @@
       <c r="E23">
         <v>10.7298571660529</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.22156097337007671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>-5162.0104971201199</v>
       </c>
@@ -12187,8 +12568,12 @@
       <c r="E24">
         <v>11.200559803999701</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>8.1894109509648191E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>-3964.8521943880401</v>
       </c>
@@ -12204,8 +12589,12 @@
       <c r="E25">
         <v>10.914388335279201</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>4.3787862468767175E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>-3900.4780258194901</v>
       </c>
@@ -12221,8 +12610,12 @@
       <c r="E26">
         <v>10.7051328396076</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.292755880188003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>-3938.4359736656702</v>
       </c>
@@ -12238,8 +12631,12 @@
       <c r="E27">
         <v>10.591433416557701</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>9.0814205475614525E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>-3639.5249177681299</v>
       </c>
@@ -12255,8 +12652,12 @@
       <c r="E28">
         <v>10.600963065317</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>8.7704835262229441E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>-3472.7438114004599</v>
       </c>
@@ -12272,8 +12673,12 @@
       <c r="E29">
         <v>10.8971130868639</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>7.8300026392661648E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>-3747.8815213013499</v>
       </c>
@@ -12289,8 +12694,12 @@
       <c r="E30">
         <v>11.1769345056164</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2.695509986081935E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>-4007.69513310305</v>
       </c>
@@ -12306,8 +12715,12 @@
       <c r="E31">
         <v>11.341114589246599</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2.7109740464805001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>-4122.0047419606699</v>
       </c>
@@ -12323,8 +12736,12 @@
       <c r="E32">
         <v>11.3931816042031</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.4263994993011977E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>-4158.0764101257901</v>
       </c>
@@ -12340,8 +12757,12 @@
       <c r="E33">
         <v>11.4051248010084</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>4.569402726063751E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>-4447.7650344487502</v>
       </c>
@@ -12357,8 +12778,12 @@
       <c r="E34">
         <v>11.191363187848699</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.2805611462306139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>-3751.47940090677</v>
       </c>
@@ -12374,8 +12799,12 @@
       <c r="E35">
         <v>11.7210434180165</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.61321808473980766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>-3662.90955211132</v>
       </c>
@@ -12391,8 +12820,12 @@
       <c r="E36">
         <v>12.5041258432693</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.001422477328769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>-3536.0953138581399</v>
       </c>
@@ -12408,8 +12841,12 @@
       <c r="E37">
         <v>13.504836829183199</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2.283160957925841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>-3400.6000089209801</v>
       </c>
@@ -12425,8 +12862,12 @@
       <c r="E38">
         <v>15.0158500514701</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.10081412763680735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>-3929.3723977995</v>
       </c>
@@ -12442,8 +12883,12 @@
       <c r="E39">
         <v>15.333362456954999</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1.4090724750708659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>-3537.9391694125802</v>
       </c>
@@ -12459,8 +12904,12 @@
       <c r="E40">
         <v>16.520406042958001</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.0979508073319241E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>-3996.9096092088198</v>
       </c>
@@ -12476,8 +12925,12 @@
       <c r="E41">
         <v>16.521453874436499</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>6.4583669967087356E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>-3931.15735282266</v>
       </c>
@@ -12493,8 +12946,12 @@
       <c r="E42">
         <v>16.601817840221599</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1.0876263061185041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>-4432.1786959093997</v>
       </c>
@@ -12510,8 +12967,12 @@
       <c r="E43">
         <v>15.5589246021006</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1.6620726780151536E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>-3935.3588414352598</v>
       </c>
@@ -12527,8 +12988,12 @@
       <c r="E44">
         <v>15.4300032044191</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.33477655949634749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>-3779.4879085011698</v>
       </c>
@@ -12544,8 +13009,12 @@
       <c r="E45">
         <v>16.008601994165801</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1.3799628642194997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>-3549.1096820338798</v>
       </c>
@@ -12561,8 +13030,12 @@
       <c r="E46">
         <v>17.1833202004687</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.54373059626748532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>-3680.8871801365999</v>
       </c>
@@ -12578,8 +13051,12 @@
       <c r="E47">
         <v>17.9207011035761</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>2.5974571834237832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>-3418.7265717146001</v>
       </c>
@@ -12595,8 +13072,12 @@
       <c r="E48">
         <v>19.532363966405601</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.30073256660484277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>-3679.0511843388699</v>
       </c>
@@ -12612,8 +13093,12 @@
       <c r="E49">
         <v>20.080754854919299</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0.81864938630245621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>-4103.1405280237104</v>
       </c>
@@ -12629,8 +13114,12 @@
       <c r="E50">
         <v>19.1759624000975</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1.8380927734788439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>-4378.4969590720702</v>
       </c>
@@ -12646,8 +13135,12 @@
       <c r="E51">
         <v>17.820199598764301</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1.6156344185314225E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>-3843.8182940029701</v>
       </c>
@@ -12663,8 +13156,12 @@
       <c r="E52">
         <v>17.947307207448102</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0.20378667217114257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>-3765.0628089567199</v>
       </c>
@@ -12680,8 +13177,12 @@
       <c r="E53">
         <v>18.3987345794263</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.54509997501239382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>-3670.5209207266098</v>
       </c>
@@ -12697,8 +13198,12 @@
       <c r="E54">
         <v>19.137043440955399</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0.12514677484079612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>-3978.7817805703999</v>
       </c>
@@ -12714,8 +13219,12 @@
       <c r="E55">
         <v>18.783282540288301</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.6515223214602055</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>-3588.9477633954998</v>
       </c>
@@ -12731,8 +13240,12 @@
       <c r="E56">
         <v>19.590451866675402</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>2.1574547016948507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>-4275.5798887133396</v>
       </c>
@@ -12748,8 +13261,12 @@
       <c r="E57">
         <v>18.1216242043219</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0.24520411265553677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>-4080.0268164948902</v>
       </c>
@@ -12765,8 +13282,12 @@
       <c r="E58">
         <v>17.6264433154989</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>4.268566930601887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>-4764.46491182107</v>
       </c>
@@ -12782,8 +13303,12 @@
       <c r="E59">
         <v>15.5603922680652</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0.5067774522598183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>-3635.0908812076</v>
       </c>
@@ -12799,8 +13324,12 @@
       <c r="E60">
         <v>16.272275300774801</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0.29890645908620334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>-4165.3363559477302</v>
       </c>
@@ -12816,8 +13345,12 @@
       <c r="E61">
         <v>15.7255519163415</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0.76843881498649214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>-3623.4491735787501</v>
       </c>
@@ -12833,8 +13366,12 @@
       <c r="E62">
         <v>16.602158335999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>1.0430850342490824E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>-3928.50123495036</v>
       </c>
@@ -12850,8 +13387,12 @@
       <c r="E63">
         <v>16.704289870515499</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0.98944017937981654</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>-3566.9101451743099</v>
       </c>
@@ -12866,6 +13407,12 @@
       </c>
       <c r="E64">
         <v>17.698995947394401</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65">
+        <f>SUM(H2:H63)/64</f>
+        <v>0.46994592547089659</v>
       </c>
     </row>
   </sheetData>
@@ -12882,15 +13429,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -12906,8 +13453,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>4646.9767252903503</v>
       </c>
@@ -12923,8 +13473,12 @@
       <c r="E2">
         <v>12.3727336669716</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2">
+        <f>(E3-E2)^2</f>
+        <v>2.0904866314281671E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>4750.5561591285796</v>
       </c>
@@ -12940,8 +13494,12 @@
       <c r="E3">
         <v>12.2281485145033</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <f t="shared" ref="H3:H64" si="0">(E4-E3)^2</f>
+        <v>6.7845830652154661E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4696.4006053384901</v>
       </c>
@@ -12957,8 +13515,12 @@
       <c r="E4">
         <v>12.145779933932699</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.66518914958886144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3862.0577027684099</v>
       </c>
@@ -12974,8 +13536,12 @@
       <c r="E5">
         <v>12.961371222256</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.5742045177201056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3579.7154838410502</v>
       </c>
@@ -12991,8 +13557,12 @@
       <c r="E6">
         <v>14.216044294303099</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>5.6487402478594628E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4148.7038446709703</v>
       </c>
@@ -13008,8 +13578,12 @@
       <c r="E7">
         <v>13.978373508385699</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.14359945024867204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4342.3876900462601</v>
       </c>
@@ -13025,8 +13599,12 @@
       <c r="E8">
         <v>13.599428327325599</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.91977037257702454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4868.0132322667396</v>
       </c>
@@ -13042,8 +13620,12 @@
       <c r="E9">
         <v>12.640381731702099</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.25180206839139618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>4696.49396712219</v>
       </c>
@@ -13059,8 +13641,12 @@
       <c r="E10">
         <v>12.1385828991094</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.14306578823787269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>4674.9234899187704</v>
       </c>
@@ -13076,8 +13662,12 @@
       <c r="E11">
         <v>11.760342514911899</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.27057543794650407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>4866.8623876020201</v>
       </c>
@@ -13093,8 +13683,12 @@
       <c r="E12">
         <v>11.2401738519318</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.3128673586208055E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>4467.7321137266099</v>
       </c>
@@ -13110,8 +13704,12 @@
       <c r="E13">
         <v>11.276407363473201</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.74234754700165273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>5309.3441414006502</v>
       </c>
@@ -13127,8 +13725,12 @@
       <c r="E14">
         <v>10.414811433235799</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.2916400313567342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>3837.5789381388599</v>
       </c>
@@ -13144,8 +13746,12 @@
       <c r="E15">
         <v>11.5513148566168</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.9293109495271719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>3765.8463875183302</v>
       </c>
@@ -13161,8 +13767,12 @@
       <c r="E16">
         <v>12.940311238731301</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.16183950894583252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>4668.5299640925496</v>
       </c>
@@ -13178,8 +13788,12 @@
       <c r="E17">
         <v>12.5380184237994</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2.044460636511173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>3673.85414026237</v>
       </c>
@@ -13195,8 +13809,12 @@
       <c r="E18">
         <v>13.9678647919492</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.49948620915830166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>4014.5468036469101</v>
       </c>
@@ -13212,8 +13830,12 @@
       <c r="E19">
         <v>14.6746081747681</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.21552763555622728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>4054.61950981978</v>
       </c>
@@ -13229,8 +13851,12 @@
       <c r="E20">
         <v>15.1388577149469</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.51540730183492733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>4617.2864054666998</v>
       </c>
@@ -13246,8 +13872,12 @@
       <c r="E21">
         <v>14.420938985678101</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.5809822223424197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>4608.71467311994</v>
       </c>
@@ -13263,8 +13893,12 @@
       <c r="E22">
         <v>13.6587170873162</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.9320842914334259E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>4371.4543191835201</v>
       </c>
@@ -13280,8 +13914,12 @@
       <c r="E23">
         <v>13.5197176523737</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.5571145719020612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>5253.7976202582504</v>
       </c>
@@ -13297,8 +13935,12 @@
       <c r="E24">
         <v>12.2718736830001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.4195521516846934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>3783.5336483545402</v>
       </c>
@@ -13314,8 +13956,12 @@
       <c r="E25">
         <v>13.463323283984</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2.0505868339152453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>3653.9363414321601</v>
       </c>
@@ -13331,8 +13977,12 @@
       <c r="E26">
         <v>14.895310306940299</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.3907206053886718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3667.5385803613699</v>
       </c>
@@ -13348,8 +13998,12 @@
       <c r="E27">
         <v>16.0745984843544</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2.2262975648211096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>3480.9180509390699</v>
       </c>
@@ -13365,8 +14019,12 @@
       <c r="E28">
         <v>17.566676754694502</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1.9366154186076743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>3454.1813524049799</v>
       </c>
@@ -13382,8 +14040,12 @@
       <c r="E29">
         <v>18.958300058109501</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>3.0318843326947037E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>3876.0068507119399</v>
       </c>
@@ -13399,8 +14061,12 @@
       <c r="E30">
         <v>19.132423127594699</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.85055980967306077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>4445.7929204988404</v>
       </c>
@@ -13416,8 +14082,12 @@
       <c r="E31">
         <v>18.2101651324149</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.70576305755920721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4450.2122033080104</v>
       </c>
@@ -13433,8 +14103,12 @@
       <c r="E32">
         <v>17.370068079950599</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.1894062930840891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>4319.5024188139396</v>
       </c>
@@ -13450,8 +14124,12 @@
       <c r="E33">
         <v>16.934859746983399</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.45570853148894042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>4420.34141091933</v>
       </c>
@@ -13467,8 +14145,12 @@
       <c r="E34">
         <v>16.2597978746421</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>3.1396571522202699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>3434.78434132031</v>
       </c>
@@ -13484,8 +14166,12 @@
       <c r="E35">
         <v>18.031705646570501</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>3.9449122842894351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>3250.4452063098402</v>
       </c>
@@ -13501,8 +14187,12 @@
       <c r="E36">
         <v>20.017885971790101</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>2.4842831112240975</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>3239.4688802936698</v>
       </c>
@@ -13518,8 +14208,12 @@
       <c r="E37">
         <v>21.5940468491196</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2.0971157867233492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>3203.0135325685401</v>
       </c>
@@ -13535,8 +14229,12 @@
       <c r="E38">
         <v>23.042189033686899</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.57913405313563793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>4071.7632285016998</v>
       </c>
@@ -13552,8 +14250,12 @@
       <c r="E39">
         <v>22.281180457430601</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.18949617257753271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>3561.6914394160499</v>
       </c>
@@ -13569,8 +14271,12 @@
       <c r="E40">
         <v>22.716492038459101</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.98830094125796786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>4192.6378865857496</v>
       </c>
@@ -13586,8 +14292,12 @@
       <c r="E41">
         <v>21.722358777141501</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.23600609900486125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>4026.3456845118098</v>
       </c>
@@ -13603,8 +14313,12 @@
       <c r="E42">
         <v>21.236554187821</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1.2835448144473032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>4377.0835696693603</v>
       </c>
@@ -13620,8 +14334,12 @@
       <c r="E43">
         <v>20.103617819595801</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>8.7302984505808479E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>3633.20446862978</v>
       </c>
@@ -13637,8 +14355,12 @@
       <c r="E44">
         <v>20.399088604117399</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.6623216396672037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>3537.3823258217599</v>
       </c>
@@ -13654,8 +14376,12 @@
       <c r="E45">
         <v>21.2129200606655</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1.3298133769279732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>3335.6330616375599</v>
       </c>
@@ -13671,8 +14397,12 @@
       <c r="E46">
         <v>22.366095405930899</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1.2232581101090953E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>3737.8977997224702</v>
       </c>
@@ -13688,8 +14418,12 @@
       <c r="E47">
         <v>22.401070512937299</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>8.1078538120213345E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>3651.5057878929401</v>
       </c>
@@ -13705,8 +14439,12 @@
       <c r="E48">
         <v>22.685813446335501</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.18830409099803408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>3924.01466559764</v>
       </c>
@@ -13722,8 +14460,12 @@
       <c r="E49">
         <v>22.251873253454001</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>1.3848266726742928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>4254.6199850433304</v>
       </c>
@@ -13739,8 +14481,12 @@
       <c r="E50">
         <v>21.075086665888399</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.61972663575957176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>4225.9878392012997</v>
       </c>
@@ -13756,8 +14502,12 @@
       <c r="E51">
         <v>20.287859484091701</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.21937102208197329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>3673.15454337246</v>
       </c>
@@ -13773,8 +14523,12 @@
       <c r="E52">
         <v>20.7562300874412</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>1.1655816768450378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>3422.7002919489901</v>
       </c>
@@ -13790,8 +14544,12 @@
       <c r="E53">
         <v>21.835851167656401</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.4264244088038916</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>3553.1804068390502</v>
       </c>
@@ -13807,8 +14565,12 @@
       <c r="E54">
         <v>22.488862966021401</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0.64081209918209403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>4091.6979563969699</v>
       </c>
@@ -13824,8 +14586,12 @@
       <c r="E55">
         <v>21.688355564942501</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>4.6049979361320936E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>3882.4112231366198</v>
       </c>
@@ -13841,8 +14607,12 @@
       <c r="E56">
         <v>21.473762975691798</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>2.7336773566620418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>4387.93735439994</v>
       </c>
@@ -13858,8 +14628,12 @@
       <c r="E57">
         <v>19.820379367250599</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1.4569075588186617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>4439.1459197329004</v>
       </c>
@@ -13875,8 +14649,12 @@
       <c r="E58">
         <v>18.6133551094916</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1.624798053096377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>4557.3392708519996</v>
       </c>
@@ -13892,8 +14670,12 @@
       <c r="E59">
         <v>17.338679443646999</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>2.008391647399272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>3318.2731250796501</v>
       </c>
@@ -13909,8 +14691,12 @@
       <c r="E60">
         <v>18.7558567957802</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>4.4840100814223259E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>3844.4201009260901</v>
       </c>
@@ -13926,8 +14712,12 @@
       <c r="E61">
         <v>18.9676116087461</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1.5805739229985485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>3412.7882039149999</v>
       </c>
@@ -13943,8 +14733,12 @@
       <c r="E62">
         <v>20.224820391327</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>3.6118807913768619E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>4000.0468154615101</v>
       </c>
@@ -13960,8 +14754,12 @@
       <c r="E63">
         <v>20.034770903262</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1.5973689276966605E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>3846.8414126972398</v>
       </c>
@@ -13976,6 +14774,16 @@
       </c>
       <c r="E64">
         <v>20.1611579646131</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8">
+      <c r="E65">
+        <f>VAR(E2:E64)</f>
+        <v>15.497685087371323</v>
+      </c>
+      <c r="H65">
+        <f>SUM(H2:H63)/64</f>
+        <v>0.87755048445977268</v>
       </c>
     </row>
   </sheetData>
@@ -16214,8 +17022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E40" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17322,15 +18130,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -17358,8 +18166,32 @@
       <c r="I1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>12.3726630301065</v>
       </c>
@@ -17386,10 +18218,50 @@
         <v>12.372707398816267</v>
       </c>
       <c r="I2">
-        <v>12.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:Q2" si="0">CORREL(A2:A61,$I$5:$I$64)</f>
+        <v>0.9258230405114718</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.67159353527002985</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0.81772638283560417</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>-0.13059474955489422</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.87155631213245643</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0.857254737131801</v>
+      </c>
+      <c r="R2">
+        <f>CORREL(G2:G61,$I$5:$I$64)</f>
+        <v>0.96085006605476597</v>
+      </c>
+      <c r="S2">
+        <f>CORREL(H2:H61,$I$5:$I$64)</f>
+        <v>0.93486272511379598</v>
+      </c>
+      <c r="T2">
+        <f>CORREL(I2:I61,$I$5:$I$64)</f>
+        <v>0.93782224236481193</v>
+      </c>
+      <c r="U2" t="e">
+        <f t="shared" ref="U2" si="1">CORREL(J2:J62,$I$2:$I$62)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>12.2483541319368</v>
       </c>
@@ -17412,14 +18284,14 @@
         <v>10.064830538303401</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H64" si="0">AVERAGE(A3,B3,C3,D3,E3,F3)</f>
+        <f t="shared" ref="H3:H64" si="2">AVERAGE(A3,B3,C3,D3,E3,F3)</f>
         <v>12.247184412143751</v>
       </c>
       <c r="I3">
-        <v>12.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>12.2123482340644</v>
       </c>
@@ -17442,14 +18314,14 @@
         <v>9.7198890482245908</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.250587517873967</v>
       </c>
       <c r="I4">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>12.2485069224452</v>
       </c>
@@ -17472,14 +18344,14 @@
         <v>10.1813306138574</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.356987891941367</v>
       </c>
       <c r="I5">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>12.384031691631501</v>
       </c>
@@ -17502,14 +18374,14 @@
         <v>11.882539625393299</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.696838005276332</v>
       </c>
       <c r="I6">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>12.582557491511301</v>
       </c>
@@ -17532,14 +18404,14 @@
         <v>12.508672037174801</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.984544562231052</v>
       </c>
       <c r="I7">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>12.8687797371831</v>
       </c>
@@ -17562,14 +18434,14 @@
         <v>13.3995662129006</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.250597827585885</v>
       </c>
       <c r="I8">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>13.249422560952601</v>
       </c>
@@ -17592,14 +18464,14 @@
         <v>13.538490842902</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.329249912490418</v>
       </c>
       <c r="I9">
-        <v>17.57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>13.574265377079</v>
       </c>
@@ -17622,14 +18494,14 @@
         <v>13.785151467023301</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.388552631518182</v>
       </c>
       <c r="I10">
-        <v>17.57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>13.908947497859399</v>
       </c>
@@ -17652,14 +18524,14 @@
         <v>13.8414410000992</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.408926228159501</v>
       </c>
       <c r="I11">
-        <v>17.57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>14.515489824401801</v>
       </c>
@@ -17682,14 +18554,14 @@
         <v>14.323988569274601</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.659193581269335</v>
       </c>
       <c r="I12">
-        <v>21.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>15.0754847644058</v>
       </c>
@@ -17712,14 +18584,14 @@
         <v>14.899847711262099</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.877319712980766</v>
       </c>
       <c r="I13">
-        <v>21.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>15.5543655213687</v>
       </c>
@@ -17742,14 +18614,14 @@
         <v>15.5464940866679</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14.157792805350498</v>
       </c>
       <c r="I14">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>15.9586398543972</v>
       </c>
@@ -17772,14 +18644,14 @@
         <v>16.842510008419602</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14.561003849764168</v>
       </c>
       <c r="I15">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>16.324040396905801</v>
       </c>
@@ -17802,11 +18674,11 @@
         <v>18.811233238076699</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.130279685949168</v>
       </c>
       <c r="I16">
-        <v>24.98</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -17832,11 +18704,11 @@
         <v>20.415325846466001</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.611425979224817</v>
       </c>
       <c r="I17">
-        <v>24.72</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -17862,11 +18734,11 @@
         <v>22.750212327154198</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.273106497047099</v>
       </c>
       <c r="I18">
-        <v>24.72</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -17892,11 +18764,11 @@
         <v>23.596950519889599</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.587685879736267</v>
       </c>
       <c r="I19">
-        <v>27.47</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -17922,11 +18794,11 @@
         <v>23.938405153761</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.807348841219802</v>
       </c>
       <c r="I20">
-        <v>27.47</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -17952,11 +18824,11 @@
         <v>23.453355743864599</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.792838662145201</v>
       </c>
       <c r="I21">
-        <v>27.47</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -17982,11 +18854,11 @@
         <v>22.431754271487101</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.696777589593498</v>
       </c>
       <c r="I22">
-        <v>30.64</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -18012,11 +18884,11 @@
         <v>21.619942114792799</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.699216153644969</v>
       </c>
       <c r="I23">
-        <v>30.64</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -18042,11 +18914,11 @@
         <v>20.4606706077493</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.634078649462669</v>
       </c>
       <c r="I24">
-        <v>24.46</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -18072,11 +18944,11 @@
         <v>20.7001562067842</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.99850772427612</v>
       </c>
       <c r="I25">
-        <v>24.46</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -18102,11 +18974,11 @@
         <v>21.8770009350111</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.616506714379167</v>
       </c>
       <c r="I26">
-        <v>24.46</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -18132,11 +19004,11 @@
         <v>23.406155152584599</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18.341741062301733</v>
       </c>
       <c r="I27">
-        <v>27.79</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -18162,11 +19034,11 @@
         <v>25.092673824819201</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.098084323596499</v>
       </c>
       <c r="I28">
-        <v>27.79</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -18192,11 +19064,11 @@
         <v>26.289223275323501</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.779185283231151</v>
       </c>
       <c r="I29">
-        <v>29.43</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -18222,11 +19094,11 @@
         <v>26.713476682372299</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.168824960040816</v>
       </c>
       <c r="I30">
-        <v>29.43</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -18252,11 +19124,11 @@
         <v>26.209156096599202</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.188476320225181</v>
       </c>
       <c r="I31">
-        <v>29.43</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -18282,11 +19154,11 @@
         <v>25.236378563072201</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.090446733947683</v>
       </c>
       <c r="I32">
-        <v>27.49</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -18312,11 +19184,11 @@
         <v>24.447902711199902</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.022405713908501</v>
       </c>
       <c r="I33">
-        <v>27.49</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -18342,11 +19214,11 @@
         <v>23.432758059126201</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.7968768071859</v>
       </c>
       <c r="I34">
-        <v>27.09</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -18372,11 +19244,11 @@
         <v>24.116850312099899</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.215662598470267</v>
       </c>
       <c r="I35">
-        <v>27.09</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -18402,11 +19274,11 @@
         <v>25.665643636734099</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.966578911075114</v>
       </c>
       <c r="I36">
-        <v>27.09</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -18432,11 +19304,11 @@
         <v>27.060233105422601</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.662292414405698</v>
       </c>
       <c r="I37">
-        <v>32.04</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -18462,11 +19334,11 @@
         <v>28.578498295852199</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.448720115595318</v>
       </c>
       <c r="I38">
-        <v>32.04</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -18492,11 +19364,11 @@
         <v>28.429219000540002</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.439191424262717</v>
       </c>
       <c r="I39">
-        <v>35.29</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -18522,11 +19394,11 @@
         <v>28.7633907262551</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.740266556900966</v>
       </c>
       <c r="I40">
-        <v>35.29</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -18552,11 +19424,11 @@
         <v>27.970224189713999</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.439887028846783</v>
       </c>
       <c r="I41">
-        <v>35.57</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -18582,11 +19454,11 @@
         <v>27.502158133497101</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.269913605237452</v>
       </c>
       <c r="I42">
-        <v>35.57</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -18612,11 +19484,11 @@
         <v>26.600399658649199</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.773212735954349</v>
       </c>
       <c r="I43">
-        <v>33.21</v>
+        <v>35.57</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -18642,11 +19514,11 @@
         <v>26.659335374174301</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.796931613163235</v>
       </c>
       <c r="I44">
-        <v>33.21</v>
+        <v>35.57</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -18672,11 +19544,11 @@
         <v>27.999019278930302</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.344251899477268</v>
       </c>
       <c r="I45">
-        <v>35.28</v>
+        <v>33.21</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -18702,11 +19574,11 @@
         <v>29.6835209653212</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.194491865397467</v>
       </c>
       <c r="I46">
-        <v>35.28</v>
+        <v>33.21</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -18732,11 +19604,11 @@
         <v>30.485317618033001</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.608593792247081</v>
       </c>
       <c r="I47">
-        <v>35.32</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -18762,11 +19634,11 @@
         <v>31.501703638893499</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.253503954692984</v>
       </c>
       <c r="I48">
-        <v>35.32</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -18792,11 +19664,11 @@
         <v>31.284121881674</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.269611494909935</v>
       </c>
       <c r="I49">
-        <v>38.44</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -18822,11 +19694,11 @@
         <v>30.441320401746601</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.846018776362655</v>
       </c>
       <c r="I50">
-        <v>38.44</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -18852,11 +19724,11 @@
         <v>29.793112651029599</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.417318780059031</v>
       </c>
       <c r="I51">
-        <v>36.6</v>
+        <v>38.44</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -18882,11 +19754,11 @@
         <v>29.916360105461099</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.480735207560816</v>
       </c>
       <c r="I52">
-        <v>36.6</v>
+        <v>38.44</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -18912,11 +19784,11 @@
         <v>30.9414965631263</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.920382482170584</v>
       </c>
       <c r="I53">
-        <v>37.11</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -18942,11 +19814,11 @@
         <v>31.828997246111101</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.345929744107764</v>
       </c>
       <c r="I54">
-        <v>37.11</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -18972,11 +19844,11 @@
         <v>31.629275097367199</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.184412074636114</v>
       </c>
       <c r="I55">
-        <v>35.74</v>
+        <v>37.11</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -19002,11 +19874,11 @@
         <v>31.6773385323485</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.209926208828012</v>
       </c>
       <c r="I56">
-        <v>35.74</v>
+        <v>37.11</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -19032,11 +19904,11 @@
         <v>30.497350675282</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.450159862693599</v>
       </c>
       <c r="I57">
-        <v>38.770000000000003</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -19062,11 +19934,11 @@
         <v>29.732193995007002</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.836158883776957</v>
       </c>
       <c r="I58">
-        <v>38.770000000000003</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -19092,11 +19964,11 @@
         <v>28.697634386552402</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.984188920370713</v>
       </c>
       <c r="I59">
-        <v>36.25</v>
+        <v>38.770000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -19122,11 +19994,11 @@
         <v>29.383987280410501</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.223820333865849</v>
       </c>
       <c r="I60">
-        <v>36.25</v>
+        <v>38.770000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -19152,11 +20024,11 @@
         <v>29.4864399672066</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.22066069519509</v>
       </c>
       <c r="I61">
-        <v>33.35</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -19182,11 +20054,11 @@
         <v>30.208648722979401</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.658603168144968</v>
       </c>
       <c r="I62">
-        <v>33.35</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -19212,11 +20084,11 @@
         <v>30.299119034692499</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.654353766681822</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>33.35</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -19242,11 +20114,11 @@
         <v>30.223707992246801</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.617326073976518</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>33.35</v>
       </c>
     </row>
   </sheetData>
